--- a/Examples/met_mast_reader/inputfile.xlsx
+++ b/Examples/met_mast_reader/inputfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\GitLab\tum_plc_linker\Examples\met_mast_reader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BC60C2-4ABD-4A37-879F-34A9500130CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81581470-837F-4CC1-A598-DBD53BA8D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1368" windowWidth="17280" windowHeight="9036" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main Folders" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="HOST" sheetId="4" r:id="rId4"/>
     <sheet name="Settings" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>VariableName</t>
   </si>
@@ -47,24 +47,75 @@
     <t>SimulinkModels</t>
   </si>
   <si>
-    <t>D:\Work\PhD\Codes\GitLab\tum_plc_linker\Examples\met_mast_reader\PLCApps</t>
+    <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\PLCApps</t>
   </si>
   <si>
     <t>PLC_Matlab_InterfaceRoutines</t>
   </si>
   <si>
-    <t>D:\Work\PhD\Codes\GitLab\tum_plc_linker\Examples\met_mast_reader\ReferenceCFiles</t>
-  </si>
-  <si>
-    <t>D:\Work\PhD\Codes\GitLab\tum_plc_linker\Examples\met_mast_reader\SimulinkCCodes</t>
-  </si>
-  <si>
-    <t>D:\Work\PhD\Codes\GitLab\tum_plc_linker\Examples\met_mast_reader\SimulinkModels</t>
+    <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\ReferenceCFiles</t>
+  </si>
+  <si>
+    <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\SimulinkCCodes</t>
+  </si>
+  <si>
+    <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\SimulinkModels</t>
+  </si>
+  <si>
+    <t>modelTag</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>slmodel_folder</t>
+  </si>
+  <si>
+    <t>slmodel_name</t>
+  </si>
+  <si>
+    <t>slccode_folder</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
+    <t>host_apptag</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
+    <t>appTag</t>
+  </si>
+  <si>
+    <t>Flag_Create_test_ITFC</t>
+  </si>
+  <si>
+    <t>test_ITFC_filename</t>
+  </si>
+  <si>
+    <t>FAST_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>SLOW_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>CTRL_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>out_filename</t>
+  </si>
+  <si>
+    <t>output_path_in_PLC</t>
+  </si>
+  <si>
+    <t>output_file_duration_s</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -92,7 +143,7 @@
     <t>DataTypes_dict_filename</t>
   </si>
   <si>
-    <t>D:\Work\PhD\Codes\GitLab\tum_plc_linker\Examples\met_mast_reader\SVI_definition.xlsx</t>
+    <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\SVI_definition.xlsx</t>
   </si>
   <si>
     <t>0.1</t>
@@ -104,10 +155,103 @@
     <t>dictionary_bachmann.xlsx</t>
   </si>
   <si>
+    <t>modelTag</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>slmodel_folder</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>slmodel_name</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>slccode_folder</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
+    <t>host_apptag</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>appTag</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
+    <t>Flag_Create_test_ITFC</t>
+  </si>
+  <si>
     <t>test_ITFC_filename</t>
   </si>
   <si>
-    <t>./Examples/met_mast_reader/mm_ITFC.mat</t>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>appTag</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
+    <t>FAST_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>SLOW_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>CTRL_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>out_filename</t>
+  </si>
+  <si>
+    <t>output_path_in_PLC</t>
+  </si>
+  <si>
+    <t>output_file_duration_s</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
   <si>
     <t>modelTag</t>
@@ -152,57 +296,39 @@
     <t>host_apptag</t>
   </si>
   <si>
-    <t>host_calc_avg</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
     <t>appTag</t>
   </si>
   <si>
-    <t>met_mast_ITFC</t>
-  </si>
-  <si>
     <t>PLCApp_folder</t>
   </si>
   <si>
-    <t>met_mast_ITFC</t>
-  </si>
-  <si>
     <t>refC_name</t>
   </si>
   <si>
-    <t>mmitfc</t>
-  </si>
-  <si>
     <t>Flag_Generate_PLC_app</t>
   </si>
   <si>
     <t>Flag_Create_test_ITFC</t>
   </si>
   <si>
+    <t>test_ITFC_filename</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
     <t>appTag</t>
   </si>
   <si>
-    <t>host_calc_avg</t>
-  </si>
-  <si>
     <t>PLCApp_folder</t>
   </si>
   <si>
-    <t>host_calc_avg</t>
-  </si>
-  <si>
     <t>refC_name</t>
   </si>
   <si>
-    <t>hcalc</t>
-  </si>
-  <si>
     <t>Flag_Generate_PLC_app</t>
   </si>
   <si>
@@ -218,13 +344,7 @@
     <t>out_filename</t>
   </si>
   <si>
-    <t>hcalc_outputs</t>
-  </si>
-  <si>
     <t>output_path_in_PLC</t>
-  </si>
-  <si>
-    <t>/usbBulk0/CALCAVG/</t>
   </si>
   <si>
     <t>output_file_duration_s</t>
@@ -257,7 +377,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -265,13 +385,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,16 +710,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -613,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -621,7 +738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -629,7 +746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -637,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -651,78 +768,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9869572F-BB40-46D4-BD46-6EE9168E91E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454DF421-B28B-4B88-BFE6-BA3A5E3A8689}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.48828125" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.48828125" customWidth="true"/>
+    <col min="5" max="5" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="10.37890625" customWidth="true"/>
+    <col min="7" max="7" width="21.48828125" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="9.48828125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -730,65 +846,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9137685-5788-4D6B-BADA-2E7903B36039}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B562D24A-AA77-4247-8556-E9F21F325DE1}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -797,93 +882,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755B0C4E-3408-4011-84AA-463E0C5E9113}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D728161-3C30-4398-8480-3382225B44C6}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2">
-        <v>600</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -892,84 +930,78 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD96BF05-7AFD-4265-A594-C75451A3A36C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD11C85-95A4-4FAA-9203-DB01CC93A4C4}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/met_mast_reader/inputfile.xlsx
+++ b/Examples/met_mast_reader/inputfile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81581470-837F-4CC1-A598-DBD53BA8D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7127BBC9-D1F5-401C-AE76-81EC38F80CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1368" windowWidth="17280" windowHeight="9036" activeTab="4"/>
+    <workbookView xWindow="34575" yWindow="2790" windowWidth="17280" windowHeight="9030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Folders" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="HOST" sheetId="4" r:id="rId4"/>
     <sheet name="Settings" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>VariableName</t>
   </si>
@@ -62,24 +62,87 @@
     <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\SimulinkModels</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ExcelPLCFileName</t>
+  </si>
+  <si>
+    <t>FlagGenerate_ITFC</t>
+  </si>
+  <si>
+    <t>FlagGenerate_PLCApps</t>
+  </si>
+  <si>
+    <t>SaveModelParametersFlag</t>
+  </si>
+  <si>
+    <t>sample_time</t>
+  </si>
+  <si>
+    <t>PLC_system</t>
+  </si>
+  <si>
+    <t>DataTypes_dict_filename</t>
+  </si>
+  <si>
+    <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\SVI_definition.xlsx</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Bachmann</t>
+  </si>
+  <si>
+    <t>dictionary_bachmann.xlsx</t>
+  </si>
+  <si>
+    <t>host_calc_avg</t>
+  </si>
+  <si>
     <t>modelTag</t>
   </si>
   <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
     <t>PLCApp_folder</t>
   </si>
   <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
     <t>slmodel_folder</t>
   </si>
   <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
     <t>slmodel_name</t>
   </si>
   <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
     <t>slccode_folder</t>
   </si>
   <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
     <t>refC_name</t>
   </si>
   <si>
+    <t>calavg</t>
+  </si>
+  <si>
     <t>Flag_Generate_PLC_app</t>
   </si>
   <si>
@@ -92,12 +155,51 @@
     <t>appTag</t>
   </si>
   <si>
+    <t>met_mast_ITFC</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>met_mast_ITFC</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>mmitfc</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
     <t>Flag_Create_test_ITFC</t>
   </si>
   <si>
     <t>test_ITFC_filename</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>appTag</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>host_calc_avg</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>hcalc</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
     <t>FAST_FREQ_RATIO</t>
   </si>
   <si>
@@ -110,241 +212,13 @@
     <t>out_filename</t>
   </si>
   <si>
+    <t>hcalc_outputs</t>
+  </si>
+  <si>
     <t>output_path_in_PLC</t>
   </si>
   <si>
-    <t>output_file_duration_s</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>ExcelPLCFileName</t>
-  </si>
-  <si>
-    <t>FlagGenerate_ITFC</t>
-  </si>
-  <si>
-    <t>FlagGenerate_PLCApps</t>
-  </si>
-  <si>
-    <t>SaveModelParametersFlag</t>
-  </si>
-  <si>
-    <t>sample_time</t>
-  </si>
-  <si>
-    <t>PLC_system</t>
-  </si>
-  <si>
-    <t>DataTypes_dict_filename</t>
-  </si>
-  <si>
-    <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\SVI_definition.xlsx</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>Bachmann</t>
-  </si>
-  <si>
-    <t>dictionary_bachmann.xlsx</t>
-  </si>
-  <si>
-    <t>modelTag</t>
-  </si>
-  <si>
-    <t>calc_avg</t>
-  </si>
-  <si>
-    <t>PLCApp_folder</t>
-  </si>
-  <si>
-    <t>calc_avg</t>
-  </si>
-  <si>
-    <t>slmodel_folder</t>
-  </si>
-  <si>
-    <t>calc_avg</t>
-  </si>
-  <si>
-    <t>slmodel_name</t>
-  </si>
-  <si>
-    <t>calc_avg</t>
-  </si>
-  <si>
-    <t>slccode_folder</t>
-  </si>
-  <si>
-    <t>calc_avg</t>
-  </si>
-  <si>
-    <t>refC_name</t>
-  </si>
-  <si>
-    <t>calc_avg</t>
-  </si>
-  <si>
-    <t>Flag_Generate_PLC_app</t>
-  </si>
-  <si>
-    <t>host_apptag</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>appTag</t>
-  </si>
-  <si>
-    <t>PLCApp_folder</t>
-  </si>
-  <si>
-    <t>refC_name</t>
-  </si>
-  <si>
-    <t>Flag_Generate_PLC_app</t>
-  </si>
-  <si>
-    <t>Flag_Create_test_ITFC</t>
-  </si>
-  <si>
-    <t>test_ITFC_filename</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>appTag</t>
-  </si>
-  <si>
-    <t>PLCApp_folder</t>
-  </si>
-  <si>
-    <t>refC_name</t>
-  </si>
-  <si>
-    <t>Flag_Generate_PLC_app</t>
-  </si>
-  <si>
-    <t>FAST_FREQ_RATIO</t>
-  </si>
-  <si>
-    <t>SLOW_FREQ_RATIO</t>
-  </si>
-  <si>
-    <t>CTRL_FREQ_RATIO</t>
-  </si>
-  <si>
-    <t>out_filename</t>
-  </si>
-  <si>
-    <t>output_path_in_PLC</t>
-  </si>
-  <si>
-    <t>output_file_duration_s</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>modelTag</t>
-  </si>
-  <si>
-    <t>calc_avg</t>
-  </si>
-  <si>
-    <t>PLCApp_folder</t>
-  </si>
-  <si>
-    <t>calc_avg</t>
-  </si>
-  <si>
-    <t>slmodel_folder</t>
-  </si>
-  <si>
-    <t>calc_avg</t>
-  </si>
-  <si>
-    <t>slmodel_name</t>
-  </si>
-  <si>
-    <t>calc_avg</t>
-  </si>
-  <si>
-    <t>slccode_folder</t>
-  </si>
-  <si>
-    <t>calc_avg</t>
-  </si>
-  <si>
-    <t>refC_name</t>
-  </si>
-  <si>
-    <t>calavg</t>
-  </si>
-  <si>
-    <t>Flag_Generate_PLC_app</t>
-  </si>
-  <si>
-    <t>host_apptag</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>appTag</t>
-  </si>
-  <si>
-    <t>PLCApp_folder</t>
-  </si>
-  <si>
-    <t>refC_name</t>
-  </si>
-  <si>
-    <t>Flag_Generate_PLC_app</t>
-  </si>
-  <si>
-    <t>Flag_Create_test_ITFC</t>
-  </si>
-  <si>
-    <t>test_ITFC_filename</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>appTag</t>
-  </si>
-  <si>
-    <t>PLCApp_folder</t>
-  </si>
-  <si>
-    <t>refC_name</t>
-  </si>
-  <si>
-    <t>Flag_Generate_PLC_app</t>
-  </si>
-  <si>
-    <t>FAST_FREQ_RATIO</t>
-  </si>
-  <si>
-    <t>SLOW_FREQ_RATIO</t>
-  </si>
-  <si>
-    <t>CTRL_FREQ_RATIO</t>
-  </si>
-  <si>
-    <t>out_filename</t>
-  </si>
-  <si>
-    <t>output_path_in_PLC</t>
+    <t>/usbBulk0/CALCAVG/</t>
   </si>
   <si>
     <t>output_file_duration_s</t>
@@ -357,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -377,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -385,15 +259,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,9 +584,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -730,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -738,7 +610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -746,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -754,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -771,74 +643,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454DF421-B28B-4B88-BFE6-BA3A5E3A8689}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.48828125" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.48828125" customWidth="true"/>
-    <col min="5" max="5" width="13.37890625" customWidth="true"/>
-    <col min="6" max="6" width="10.37890625" customWidth="true"/>
-    <col min="7" max="7" width="21.48828125" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="9.48828125" customWidth="true"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="0" t="b">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -847,33 +721,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B562D24A-AA77-4247-8556-E9F21F325DE1}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -883,45 +783,92 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D728161-3C30-4398-8480-3382225B44C6}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -933,75 +880,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD11C85-95A4-4FAA-9203-DB01CC93A4C4}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/met_mast_reader/inputfile.xlsx
+++ b/Examples/met_mast_reader/inputfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7127BBC9-D1F5-401C-AE76-81EC38F80CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EF7C26-CC60-4BD9-BEEB-872309119608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34575" yWindow="2790" windowWidth="17280" windowHeight="9030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1845" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Folders" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454DF421-B28B-4B88-BFE6-BA3A5E3A8689}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -880,7 +880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD11C85-95A4-4FAA-9203-DB01CC93A4C4}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Examples/met_mast_reader/inputfile.xlsx
+++ b/Examples/met_mast_reader/inputfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EF7C26-CC60-4BD9-BEEB-872309119608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8187AC87-346F-402A-BC85-09614017C881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1845" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Folders" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
-  <si>
-    <t>VariableName</t>
-  </si>
-  <si>
-    <t>FolderName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>PLCApps</t>
   </si>
@@ -65,12 +59,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>ExcelPLCFileName</t>
   </si>
   <si>
@@ -225,13 +213,19 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>KeyName</t>
+  </si>
+  <si>
+    <t>KeyValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -582,56 +576,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -647,7 +646,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.44140625" customWidth="1"/>
     <col min="2" max="3" width="13.6640625" customWidth="1"/>
@@ -659,59 +658,59 @@
     <col min="9" max="9" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +724,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
@@ -736,38 +735,38 @@
     <col min="7" max="7" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -789,7 +788,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
@@ -804,50 +803,50 @@
     <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -862,10 +861,10 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J2">
         <v>600</v>
@@ -880,80 +879,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD11C85-95A4-4FAA-9203-DB01CC93A4C4}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/met_mast_reader/inputfile.xlsx
+++ b/Examples/met_mast_reader/inputfile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8187AC87-346F-402A-BC85-09614017C881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Main Folders" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="HOST" sheetId="4" r:id="rId4"/>
     <sheet name="Settings" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="151">
   <si>
     <t>PLCApps</t>
   </si>
@@ -219,6 +219,264 @@
   </si>
   <si>
     <t>KeyValue</t>
+  </si>
+  <si>
+    <t>modelTag</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>slmodel_folder</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>slmodel_name</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>slccode_folder</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>calavg</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
+    <t>host_apptag</t>
+  </si>
+  <si>
+    <t>host_calc_avg</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>appTag</t>
+  </si>
+  <si>
+    <t>met_mast_ITFC</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>met_mast_ITFC</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>mmitfc</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
+    <t>Flag_Create_test_ITFC</t>
+  </si>
+  <si>
+    <t>test_ITFC_filename</t>
+  </si>
+  <si>
+    <t>./Examples/met_mast_reader/mm_ITFC.mat</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>appTag</t>
+  </si>
+  <si>
+    <t>host_calc_avg</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>host_calc_avg</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>hcalc</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
+    <t>FAST_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>SLOW_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>CTRL_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>out_filename</t>
+  </si>
+  <si>
+    <t>hcalc_outputs</t>
+  </si>
+  <si>
+    <t>output_path_in_PLC</t>
+  </si>
+  <si>
+    <t>/usbBulk0/CALCAVG/</t>
+  </si>
+  <si>
+    <t>output_file_duration_s</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>modelTag</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>slmodel_folder</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>slmodel_name</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>slccode_folder</t>
+  </si>
+  <si>
+    <t>calc_avg</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>calavg</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
+    <t>host_apptag</t>
+  </si>
+  <si>
+    <t>host_calc_avg</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>appTag</t>
+  </si>
+  <si>
+    <t>met_mast_ITFC</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>met_mast_ITFC</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>mmitfc</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
+    <t>Flag_Create_test_ITFC</t>
+  </si>
+  <si>
+    <t>test_ITFC_filename</t>
+  </si>
+  <si>
+    <t>./Examples/met_mast_reader/mm_ITFC.mat</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>appTag</t>
+  </si>
+  <si>
+    <t>host_calc_avg</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>host_calc_avg</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>hcalc</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
+    <t>FAST_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>SLOW_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>CTRL_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>out_filename</t>
+  </si>
+  <si>
+    <t>hcalc_outputs</t>
+  </si>
+  <si>
+    <t>output_path_in_PLC</t>
+  </si>
+  <si>
+    <t>/usbBulk0/CALCAVG/</t>
+  </si>
+  <si>
+    <t>output_file_duration_s</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -245,7 +503,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -253,13 +511,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,16 +836,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -593,7 +853,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -601,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -609,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -617,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -625,7 +885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -648,70 +908,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
-    <col min="2" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.48828125" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.48828125" customWidth="true"/>
+    <col min="5" max="5" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="10.37890625" customWidth="true"/>
+    <col min="7" max="7" width="21.48828125" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="9.48828125" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -726,54 +988,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.37890625" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="21.48828125" customWidth="true"/>
+    <col min="5" max="5" width="19.6015625" customWidth="true"/>
+    <col min="6" max="6" width="17.15625" customWidth="true"/>
+    <col min="7" max="7" width="9.48828125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -790,85 +1056,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.37890625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="21.48828125" customWidth="true"/>
+    <col min="5" max="5" width="16.82421875" customWidth="true"/>
+    <col min="6" max="6" width="17.7109375" customWidth="true"/>
+    <col min="7" max="7" width="16.82421875" customWidth="true"/>
+    <col min="8" max="8" width="12.37890625" customWidth="true"/>
+    <col min="9" max="9" width="18.48828125" customWidth="true"/>
+    <col min="10" max="10" width="20.48828125" customWidth="true"/>
+    <col min="11" max="11" width="9.48828125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2">
+      <c r="H2" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="0">
         <v>600</v>
       </c>
+      <c r="K2" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -885,10 +1152,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -899,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -907,7 +1174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -915,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -923,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -931,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -939,7 +1206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -947,7 +1214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
